--- a/Calcoli.xlsx
+++ b/Calcoli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f13700a99dc64b9/Documents/cella_di_lievitazione/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://midacspa-my.sharepoint.com/personal/riccardo_mattuzzi_midacbatteries_com/Documents/Documenti/cella_di_lievitazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{F9DF7FEB-C8AF-4E04-838A-0C20BA85AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E268232A-A936-4FEA-9077-FD72E8AA09C3}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{F9DF7FEB-C8AF-4E04-838A-0C20BA85AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B854680-B69E-47CD-BF51-01347307BADD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{474E07AD-7AAC-4CCB-9913-5DDD86DC6BD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{474E07AD-7AAC-4CCB-9913-5DDD86DC6BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="5" r:id="rId1"/>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>(Titolo tabella)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Autore: Riccardo Mattuzzi</t>
-  </si>
-  <si>
-    <t>(Titolo)</t>
   </si>
   <si>
     <t>Caso</t>
@@ -89,28 +83,77 @@
 [J]</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Tempo
-[min]</t>
-  </si>
-  <si>
     <t>Potenza
 [W]</t>
   </si>
   <si>
     <t>Altezza h
 [mm]</t>
+  </si>
+  <si>
+    <t>Calore specifico aria
+[J/(kg*K)]</t>
+  </si>
+  <si>
+    <r>
+      <t>Densità aria
+[kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>ΔT
+[°C]</t>
+  </si>
+  <si>
+    <t>Δt
+[min]</t>
+  </si>
+  <si>
+    <t>Dati fissi</t>
+  </si>
+  <si>
+    <t>Casi di studio</t>
+  </si>
+  <si>
+    <t>Calcolo potenza [W]</t>
+  </si>
+  <si>
+    <t>Calore
+[W*h]</t>
+  </si>
+  <si>
+    <t>Massa
+[kg]</t>
+  </si>
+  <si>
+    <t>Vol. piccolo</t>
+  </si>
+  <si>
+    <t>Vol. medio</t>
+  </si>
+  <si>
+    <t>Vol. grande</t>
   </si>
 </sst>
 </file>
@@ -183,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -203,11 +246,29 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
       <font>
         <b val="0"/>
@@ -225,7 +286,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -244,7 +305,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -263,6 +325,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -282,6 +345,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -301,6 +365,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -320,6 +385,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -339,6 +405,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -358,7 +425,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -417,7 +485,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -436,6 +505,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -455,7 +525,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -550,10 +641,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Stile tabella 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Stile tabella 1" pivot="0" count="4" xr9:uid="{C473601D-68EB-4C00-AEEB-146515578BCD}">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -580,38 +671,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}" name="Tabella4" displayName="Tabella4" ref="A6:H7" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A6:H7" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4EA44607-612E-4E0E-B876-53478E8A15E2}" name="Caso" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{857D4DC0-83B2-4716-A8E7-6A350B55319B}" name="Base b_x000a_[mm]" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{008672F6-50FB-4036-B51A-ABEF39F8D83E}" name="Profondità p_x000a_[mm]" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{EE0BCE7B-E085-4C0A-BFFF-93D087AA2AEE}" name="Altezza h_x000a_[mm]" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{9202D1C4-088F-4C65-A59A-C35F094641D6}" name="Volume_x000a_[m3]" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}" name="Tabella4" displayName="Tabella4" ref="A11:I14" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A11:I14" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4EA44607-612E-4E0E-B876-53478E8A15E2}" name="Caso" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{857D4DC0-83B2-4716-A8E7-6A350B55319B}" name="Base b_x000a_[mm]" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{008672F6-50FB-4036-B51A-ABEF39F8D83E}" name="Profondità p_x000a_[mm]" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{EE0BCE7B-E085-4C0A-BFFF-93D087AA2AEE}" name="Altezza h_x000a_[mm]" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9202D1C4-088F-4C65-A59A-C35F094641D6}" name="Volume_x000a_[m3]" dataDxfId="6">
       <calculatedColumnFormula>Tabella4[[#This Row],[Base b
 '[mm']]]*Tabella4[[#This Row],[Profondità p
 '[mm']]]*Tabella4[[#This Row],[Altezza h
 '[mm']]]/1000/1000/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{85B42E22-7BE7-45C5-8042-FC427A3CFBAA}" name="Calore_x000a_[J]" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{85B42E22-7BE7-45C5-8042-FC427A3CFBAA}" name="Massa_x000a_[kg]" dataDxfId="4">
       <calculatedColumnFormula>Tabella4[[#This Row],[Volume
-'[m3']]]*$D$4</calculatedColumnFormula>
+'[m3']]]*$B$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4DA83C4D-766B-48E2-AE5B-124A6541C75F}" name="Tempo_x000a_[min]" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E19D2DB1-24D4-4353-9EF1-B1D01BDF6966}" name="Potenza_x000a_[W]" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{63431D1F-6C95-4ED8-B464-303EE0C5F12F}" name="Calore_x000a_[J]" dataDxfId="2">
+      <calculatedColumnFormula>$A$7*$C$7*Tabella4[[#This Row],[Massa
+'[kg']]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{E19D2DB1-24D4-4353-9EF1-B1D01BDF6966}" name="Calore_x000a_[W*h]" dataDxfId="3">
+      <calculatedColumnFormula>Tabella4[[#This Row],[Calore
+'[J']]]/3600</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{BEDA278D-2C92-483D-A874-49BE47621CFD}" name="Potenza_x000a_[W]" dataDxfId="13">
+      <calculatedColumnFormula>Tabella4[[#This Row],[Calore
+'[J']]]/$D$7/60</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Stile tabella 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22D1B859-C11E-4A62-B1EA-C49C1990358E}" name="Table1" displayName="Table1" ref="J6:M7" insertRow="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
-  <autoFilter ref="J6:M7" xr:uid="{22D1B859-C11E-4A62-B1EA-C49C1990358E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1979EDC-FD39-41FB-B19C-5AB11C87DE40}" name="Tabella1" displayName="Tabella1" ref="A6:D7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="8">
+  <autoFilter ref="A6:D7" xr:uid="{D1979EDC-FD39-41FB-B19C-5AB11C87DE40}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D10779E-355C-4F05-BC21-8B3736EB35AB}" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{449F32E5-DAAE-4AF4-ABDB-460342F9509C}" name="Column2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A665DDBF-C563-46A6-899D-F1127E5472A1}" name="Column3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5E1273F7-7E9F-4190-BC0B-CE3CB538F291}" name="Column4" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1E35807A-88C6-413D-832E-2382CBC496E5}" name="Calore specifico aria_x000a_[J/(kg*K)]" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F0207E17-2C9E-4313-AAE9-C823C9F83831}" name="Densità aria_x000a_[kg/m3]" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{46C7CB18-34AF-41CB-8427-08434AC5FF77}" name="ΔT_x000a_[°C]" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{28A8A7A1-1BD3-4426-89BD-C78D5083DD58}" name="Δt_x000a_[min]" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Stile tabella 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -934,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2ACCA9-0C84-4CCE-ACB9-751036E0B3BF}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="206" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -947,97 +1048,218 @@
     <col min="4" max="16384" width="12.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C7" s="11">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>600</v>
-      </c>
-      <c r="C7" s="5">
-        <v>400</v>
-      </c>
-      <c r="D7" s="2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="9">
+        <v>300</v>
+      </c>
+      <c r="C12" s="9">
+        <v>300</v>
+      </c>
+      <c r="D12" s="10">
         <v>200</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E12" s="8">
         <f>Tabella4[[#This Row],[Base b
 '[mm']]]*Tabella4[[#This Row],[Profondità p
 '[mm']]]*Tabella4[[#This Row],[Altezza h
 '[mm']]]/1000/1000/1000</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="F7" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F12" s="8">
         <f>Tabella4[[#This Row],[Volume
-'[m3']]]*$D$4</f>
-        <v>0</v>
+'[m3']]]*$B$7</f>
+        <v>2.205E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <f>$A$7*$C$7*Tabella4[[#This Row],[Massa
+'[kg']]]</f>
+        <v>332.40375</v>
+      </c>
+      <c r="H12" s="8">
+        <f>Tabella4[[#This Row],[Calore
+'[J']]]/3600</f>
+        <v>9.2334374999999996E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <f>Tabella4[[#This Row],[Calore
+'[J']]]/$D$7/60</f>
+        <v>0.55400625000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="9">
+        <v>700</v>
+      </c>
+      <c r="C13" s="9">
+        <v>400</v>
+      </c>
+      <c r="D13" s="10">
+        <v>200</v>
+      </c>
+      <c r="E13" s="8">
+        <f>Tabella4[[#This Row],[Base b
+'[mm']]]*Tabella4[[#This Row],[Profondità p
+'[mm']]]*Tabella4[[#This Row],[Altezza h
+'[mm']]]/1000/1000/1000</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <f>Tabella4[[#This Row],[Volume
+'[m3']]]*$B$7</f>
+        <v>6.8600000000000008E-2</v>
+      </c>
+      <c r="G13" s="10">
+        <f>$A$7*$C$7*Tabella4[[#This Row],[Massa
+'[kg']]]</f>
+        <v>1034.1450000000002</v>
+      </c>
+      <c r="H13" s="8">
+        <f>Tabella4[[#This Row],[Calore
+'[J']]]/3600</f>
+        <v>0.28726250000000003</v>
+      </c>
+      <c r="I13" s="8">
+        <f>Tabella4[[#This Row],[Calore
+'[J']]]/$D$7/60</f>
+        <v>1.7235750000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1100</v>
+      </c>
+      <c r="C14" s="9">
+        <v>500</v>
+      </c>
+      <c r="D14" s="10">
+        <v>400</v>
+      </c>
+      <c r="E14" s="8">
+        <f>Tabella4[[#This Row],[Base b
+'[mm']]]*Tabella4[[#This Row],[Profondità p
+'[mm']]]*Tabella4[[#This Row],[Altezza h
+'[mm']]]/1000/1000/1000</f>
+        <v>0.22</v>
+      </c>
+      <c r="F14" s="8">
+        <f>Tabella4[[#This Row],[Volume
+'[m3']]]*$B$7</f>
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="G14" s="10">
+        <f>$A$7*$C$7*Tabella4[[#This Row],[Massa
+'[kg']]]</f>
+        <v>4062.7125000000001</v>
+      </c>
+      <c r="H14" s="8">
+        <f>Tabella4[[#This Row],[Calore
+'[J']]]/3600</f>
+        <v>1.12853125</v>
+      </c>
+      <c r="I14" s="8">
+        <f>Tabella4[[#This Row],[Calore
+'[J']]]/$D$7/60</f>
+        <v>6.7711874999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1084,6 +1306,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A91ED4320AF50841A1B154E19B1B7683" ma:contentTypeVersion="27" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="282348db16fde701a0c0b22647878826">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e593a586-0c0d-4601-9a83-dbc2b62470a3" xmlns:ns3="0143dcb5-b38d-453e-8e82-47e5684eca4e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553754a63d13621b877588dde720c6b7" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1427,15 +1658,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2670EE2-0279-41C4-B1BC-C72EDB966A88}">
   <ds:schemaRefs>
@@ -1455,6 +1677,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC136203-09B0-4EA6-865A-D597761C1DEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BE38B42-C33C-411C-9CDF-85F8FFA8E767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1472,12 +1702,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC136203-09B0-4EA6-865A-D597761C1DEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Calcoli.xlsx
+++ b/Calcoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://midacspa-my.sharepoint.com/personal/riccardo_mattuzzi_midacbatteries_com/Documents/Documenti/cella_di_lievitazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="8_{F9DF7FEB-C8AF-4E04-838A-0C20BA85AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B854680-B69E-47CD-BF51-01347307BADD}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{F9DF7FEB-C8AF-4E04-838A-0C20BA85AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AEB8545-2CCA-47C0-A1C0-F63939FB2818}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{474E07AD-7AAC-4CCB-9913-5DDD86DC6BD2}"/>
   </bookViews>
@@ -147,13 +147,13 @@
 [kg]</t>
   </si>
   <si>
-    <t>Vol. piccolo</t>
-  </si>
-  <si>
-    <t>Vol. medio</t>
-  </si>
-  <si>
-    <t>Vol. grande</t>
+    <t>Terrina piccola</t>
+  </si>
+  <si>
+    <t>Teglia forno</t>
+  </si>
+  <si>
+    <t>Gastron</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -246,9 +246,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,9 +255,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -286,7 +280,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -305,7 +300,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -325,8 +320,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -345,7 +340,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -365,7 +360,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -385,7 +380,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -425,8 +419,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -445,7 +439,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -465,7 +459,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -485,8 +479,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -505,8 +499,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -525,8 +519,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -545,8 +539,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -565,7 +559,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -674,29 +668,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}" name="Tabella4" displayName="Tabella4" ref="A11:I14" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A11:I14" xr:uid="{5095E20A-1147-42E2-981A-F3902435D0B4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4EA44607-612E-4E0E-B876-53478E8A15E2}" name="Caso" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{857D4DC0-83B2-4716-A8E7-6A350B55319B}" name="Base b_x000a_[mm]" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{008672F6-50FB-4036-B51A-ABEF39F8D83E}" name="Profondità p_x000a_[mm]" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{EE0BCE7B-E085-4C0A-BFFF-93D087AA2AEE}" name="Altezza h_x000a_[mm]" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9202D1C4-088F-4C65-A59A-C35F094641D6}" name="Volume_x000a_[m3]" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{4EA44607-612E-4E0E-B876-53478E8A15E2}" name="Caso" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{857D4DC0-83B2-4716-A8E7-6A350B55319B}" name="Base b_x000a_[mm]" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{008672F6-50FB-4036-B51A-ABEF39F8D83E}" name="Profondità p_x000a_[mm]" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{EE0BCE7B-E085-4C0A-BFFF-93D087AA2AEE}" name="Altezza h_x000a_[mm]" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{9202D1C4-088F-4C65-A59A-C35F094641D6}" name="Volume_x000a_[m3]" dataDxfId="10">
       <calculatedColumnFormula>Tabella4[[#This Row],[Base b
 '[mm']]]*Tabella4[[#This Row],[Profondità p
 '[mm']]]*Tabella4[[#This Row],[Altezza h
 '[mm']]]/1000/1000/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{85B42E22-7BE7-45C5-8042-FC427A3CFBAA}" name="Massa_x000a_[kg]" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{85B42E22-7BE7-45C5-8042-FC427A3CFBAA}" name="Massa_x000a_[kg]" dataDxfId="9">
       <calculatedColumnFormula>Tabella4[[#This Row],[Volume
 '[m3']]]*$B$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{63431D1F-6C95-4ED8-B464-303EE0C5F12F}" name="Calore_x000a_[J]" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{63431D1F-6C95-4ED8-B464-303EE0C5F12F}" name="Calore_x000a_[J]" dataDxfId="8">
       <calculatedColumnFormula>$A$7*$C$7*Tabella4[[#This Row],[Massa
 '[kg']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E19D2DB1-24D4-4353-9EF1-B1D01BDF6966}" name="Calore_x000a_[W*h]" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{E19D2DB1-24D4-4353-9EF1-B1D01BDF6966}" name="Calore_x000a_[W*h]" dataDxfId="7">
       <calculatedColumnFormula>Tabella4[[#This Row],[Calore
 '[J']]]/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BEDA278D-2C92-483D-A874-49BE47621CFD}" name="Potenza_x000a_[W]" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{BEDA278D-2C92-483D-A874-49BE47621CFD}" name="Potenza_x000a_[W]" dataDxfId="6">
       <calculatedColumnFormula>Tabella4[[#This Row],[Calore
 '[J']]]/$D$7/60</calculatedColumnFormula>
     </tableColumn>
@@ -706,13 +700,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1979EDC-FD39-41FB-B19C-5AB11C87DE40}" name="Tabella1" displayName="Tabella1" ref="A6:D7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1979EDC-FD39-41FB-B19C-5AB11C87DE40}" name="Tabella1" displayName="Tabella1" ref="A6:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A6:D7" xr:uid="{D1979EDC-FD39-41FB-B19C-5AB11C87DE40}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1E35807A-88C6-413D-832E-2382CBC496E5}" name="Calore specifico aria_x000a_[J/(kg*K)]" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F0207E17-2C9E-4313-AAE9-C823C9F83831}" name="Densità aria_x000a_[kg/m3]" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{46C7CB18-34AF-41CB-8427-08434AC5FF77}" name="ΔT_x000a_[°C]" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{28A8A7A1-1BD3-4426-89BD-C78D5083DD58}" name="Δt_x000a_[min]" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{1E35807A-88C6-413D-832E-2382CBC496E5}" name="Calore specifico aria_x000a_[J/(kg*K)]" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F0207E17-2C9E-4313-AAE9-C823C9F83831}" name="Densità aria_x000a_[kg/m3]" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{46C7CB18-34AF-41CB-8427-08434AC5FF77}" name="ΔT_x000a_[°C]" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{28A8A7A1-1BD3-4426-89BD-C78D5083DD58}" name="Δt_x000a_[min]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Stile tabella 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1037,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2ACCA9-0C84-4CCE-ACB9-751036E0B3BF}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="206" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1092,16 +1086,16 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>1005</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="5">
         <v>1.2250000000000001</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1140,126 +1134,126 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>300</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>300</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>200</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>Tabella4[[#This Row],[Base b
 '[mm']]]*Tabella4[[#This Row],[Profondità p
 '[mm']]]*Tabella4[[#This Row],[Altezza h
 '[mm']]]/1000/1000/1000</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>Tabella4[[#This Row],[Volume
 '[m3']]]*$B$7</f>
         <v>2.205E-2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <f>$A$7*$C$7*Tabella4[[#This Row],[Massa
 '[kg']]]</f>
         <v>332.40375</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f>Tabella4[[#This Row],[Calore
 '[J']]]/3600</f>
         <v>9.2334374999999996E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <f>Tabella4[[#This Row],[Calore
 '[J']]]/$D$7/60</f>
         <v>0.55400625000000003</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>700</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>400</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>200</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f>Tabella4[[#This Row],[Base b
 '[mm']]]*Tabella4[[#This Row],[Profondità p
 '[mm']]]*Tabella4[[#This Row],[Altezza h
 '[mm']]]/1000/1000/1000</f>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f>Tabella4[[#This Row],[Volume
 '[m3']]]*$B$7</f>
         <v>6.8600000000000008E-2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f>$A$7*$C$7*Tabella4[[#This Row],[Massa
 '[kg']]]</f>
         <v>1034.1450000000002</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <f>Tabella4[[#This Row],[Calore
 '[J']]]/3600</f>
         <v>0.28726250000000003</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <f>Tabella4[[#This Row],[Calore
 '[J']]]/$D$7/60</f>
         <v>1.7235750000000003</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9">
-        <v>1100</v>
-      </c>
-      <c r="C14" s="9">
-        <v>500</v>
-      </c>
-      <c r="D14" s="10">
-        <v>400</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="B14" s="8">
+        <v>520</v>
+      </c>
+      <c r="C14" s="8">
+        <v>320</v>
+      </c>
+      <c r="D14" s="9">
+        <v>200</v>
+      </c>
+      <c r="E14" s="7">
         <f>Tabella4[[#This Row],[Base b
 '[mm']]]*Tabella4[[#This Row],[Profondità p
 '[mm']]]*Tabella4[[#This Row],[Altezza h
 '[mm']]]/1000/1000/1000</f>
-        <v>0.22</v>
-      </c>
-      <c r="F14" s="8">
+        <v>3.3280000000000004E-2</v>
+      </c>
+      <c r="F14" s="7">
         <f>Tabella4[[#This Row],[Volume
 '[m3']]]*$B$7</f>
-        <v>0.26950000000000002</v>
-      </c>
-      <c r="G14" s="10">
+        <v>4.0768000000000006E-2</v>
+      </c>
+      <c r="G14" s="9">
         <f>$A$7*$C$7*Tabella4[[#This Row],[Massa
 '[kg']]]</f>
-        <v>4062.7125000000001</v>
-      </c>
-      <c r="H14" s="8">
+        <v>614.57760000000007</v>
+      </c>
+      <c r="H14" s="7">
         <f>Tabella4[[#This Row],[Calore
 '[J']]]/3600</f>
-        <v>1.12853125</v>
-      </c>
-      <c r="I14" s="8">
+        <v>0.17071600000000003</v>
+      </c>
+      <c r="I14" s="7">
         <f>Tabella4[[#This Row],[Calore
 '[J']]]/$D$7/60</f>
-        <v>6.7711874999999999</v>
+        <v>1.0242960000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1306,15 +1300,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A91ED4320AF50841A1B154E19B1B7683" ma:contentTypeVersion="27" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="282348db16fde701a0c0b22647878826">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e593a586-0c0d-4601-9a83-dbc2b62470a3" xmlns:ns3="0143dcb5-b38d-453e-8e82-47e5684eca4e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553754a63d13621b877588dde720c6b7" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1658,6 +1643,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2670EE2-0279-41C4-B1BC-C72EDB966A88}">
   <ds:schemaRefs>
@@ -1677,14 +1671,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC136203-09B0-4EA6-865A-D597761C1DEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BE38B42-C33C-411C-9CDF-85F8FFA8E767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1702,4 +1688,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC136203-09B0-4EA6-865A-D597761C1DEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Calcoli.xlsx
+++ b/Calcoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://midacspa-my.sharepoint.com/personal/riccardo_mattuzzi_midacbatteries_com/Documents/Documenti/cella_di_lievitazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{F9DF7FEB-C8AF-4E04-838A-0C20BA85AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AEB8545-2CCA-47C0-A1C0-F63939FB2818}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{F9DF7FEB-C8AF-4E04-838A-0C20BA85AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{040FD0B2-60DE-4132-A8A1-0D0A6E15505B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{474E07AD-7AAC-4CCB-9913-5DDD86DC6BD2}"/>
   </bookViews>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -257,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2ACCA9-0C84-4CCE-ACB9-751036E0B3BF}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1174,7 @@
       <c r="I12" s="7">
         <f>Tabella4[[#This Row],[Calore
 '[J']]]/$D$7/60</f>
-        <v>0.55400625000000003</v>
+        <v>1.1080125000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1212,7 +1215,7 @@
       <c r="I13" s="7">
         <f>Tabella4[[#This Row],[Calore
 '[J']]]/$D$7/60</f>
-        <v>1.7235750000000003</v>
+        <v>3.4471500000000006</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1253,8 +1256,81 @@
       <c r="I14" s="7">
         <f>Tabella4[[#This Row],[Calore
 '[J']]]/$D$7/60</f>
-        <v>1.0242960000000001</v>
-      </c>
+        <v>2.0485920000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1300,6 +1376,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A91ED4320AF50841A1B154E19B1B7683" ma:contentTypeVersion="27" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="282348db16fde701a0c0b22647878826">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e593a586-0c0d-4601-9a83-dbc2b62470a3" xmlns:ns3="0143dcb5-b38d-453e-8e82-47e5684eca4e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553754a63d13621b877588dde720c6b7" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1643,15 +1728,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2670EE2-0279-41C4-B1BC-C72EDB966A88}">
   <ds:schemaRefs>
@@ -1671,6 +1747,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC136203-09B0-4EA6-865A-D597761C1DEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BE38B42-C33C-411C-9CDF-85F8FFA8E767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1688,12 +1772,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC136203-09B0-4EA6-865A-D597761C1DEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>